--- a/data/output/predictions/y_test_gasto_publico.xlsx
+++ b/data/output/predictions/y_test_gasto_publico.xlsx
@@ -402,7 +402,7 @@
         <v>44926</v>
       </c>
       <c r="B2">
-        <v>171709.8999700074</v>
+        <v>171308.148205446</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>45016</v>
       </c>
       <c r="B3">
-        <v>169213.5595306227</v>
+        <v>176943.692085853</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>45107</v>
       </c>
       <c r="B4">
-        <v>172418.9908996065</v>
+        <v>179025.6645060735</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>45199</v>
       </c>
       <c r="B5">
-        <v>177977.1007261531</v>
+        <v>182139.0825480125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +434,7 @@
         <v>45291</v>
       </c>
       <c r="B6">
-        <v>176835.1143191989</v>
+        <v>185382.2367205507</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -442,7 +442,7 @@
         <v>45382</v>
       </c>
       <c r="B7">
-        <v>160264.3188418842</v>
+        <v>187550.625266466</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -450,7 +450,7 @@
         <v>45473</v>
       </c>
       <c r="B8">
-        <v>161828.2559119157</v>
+        <v>188801.8538153375</v>
       </c>
     </row>
   </sheetData>
